--- a/SchedulingData/dynamic11/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_18.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.94</v>
+        <v>223.48</v>
       </c>
       <c r="D2" t="n">
-        <v>280.54</v>
+        <v>274.92</v>
       </c>
       <c r="E2" t="n">
-        <v>9.635999999999999</v>
+        <v>14.188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>220.84</v>
+        <v>246.82</v>
       </c>
       <c r="D3" t="n">
-        <v>264.7</v>
+        <v>284.52</v>
       </c>
       <c r="E3" t="n">
-        <v>13.7</v>
+        <v>9.708</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>280.54</v>
+        <v>241.02</v>
       </c>
       <c r="D4" t="n">
-        <v>331.06</v>
+        <v>287.08</v>
       </c>
       <c r="E4" t="n">
-        <v>6.204</v>
+        <v>12.492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>212.08</v>
+        <v>287.08</v>
       </c>
       <c r="D5" t="n">
-        <v>259.2</v>
+        <v>350.48</v>
       </c>
       <c r="E5" t="n">
-        <v>14.24</v>
+        <v>9.252000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -542,112 +542,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>245.18</v>
+        <v>212.5</v>
       </c>
       <c r="D6" t="n">
-        <v>296.98</v>
+        <v>255.48</v>
       </c>
       <c r="E6" t="n">
-        <v>12.472</v>
+        <v>11.152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>264.7</v>
+        <v>274.92</v>
       </c>
       <c r="D7" t="n">
-        <v>314.56</v>
+        <v>324.72</v>
       </c>
       <c r="E7" t="n">
-        <v>11.324</v>
+        <v>11.328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243.56</v>
+        <v>238.62</v>
       </c>
       <c r="D8" t="n">
-        <v>311.04</v>
+        <v>274.62</v>
       </c>
       <c r="E8" t="n">
-        <v>11.496</v>
+        <v>10.708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>259.2</v>
+        <v>350.48</v>
       </c>
       <c r="D9" t="n">
-        <v>316.1</v>
+        <v>409.18</v>
       </c>
       <c r="E9" t="n">
-        <v>11.16</v>
+        <v>6.012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>214.2</v>
+        <v>264.98</v>
       </c>
       <c r="D10" t="n">
-        <v>267.84</v>
+        <v>314.36</v>
       </c>
       <c r="E10" t="n">
-        <v>14.216</v>
+        <v>11.704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>331.06</v>
+        <v>314.36</v>
       </c>
       <c r="D11" t="n">
-        <v>368.28</v>
+        <v>373.56</v>
       </c>
       <c r="E11" t="n">
-        <v>3.612</v>
+        <v>8.404</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>316.1</v>
+        <v>284.52</v>
       </c>
       <c r="D12" t="n">
-        <v>398.36</v>
+        <v>329.58</v>
       </c>
       <c r="E12" t="n">
-        <v>8.023999999999999</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>314.56</v>
+        <v>324.72</v>
       </c>
       <c r="D13" t="n">
-        <v>363.96</v>
+        <v>381.52</v>
       </c>
       <c r="E13" t="n">
-        <v>8.023999999999999</v>
+        <v>8.247999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>368.28</v>
+        <v>255.48</v>
       </c>
       <c r="D14" t="n">
-        <v>435.08</v>
+        <v>317.18</v>
       </c>
       <c r="E14" t="n">
-        <v>0.532</v>
+        <v>8.071999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -713,93 +713,93 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>435.08</v>
+        <v>409.18</v>
       </c>
       <c r="D15" t="n">
-        <v>530.42</v>
+        <v>477.54</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>3.256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>530.42</v>
+        <v>373.56</v>
       </c>
       <c r="D16" t="n">
-        <v>607.64</v>
+        <v>413.72</v>
       </c>
       <c r="E16" t="n">
-        <v>27.408</v>
+        <v>6.028</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>398.36</v>
+        <v>317.18</v>
       </c>
       <c r="D17" t="n">
-        <v>452.96</v>
+        <v>379.4</v>
       </c>
       <c r="E17" t="n">
-        <v>5.164</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>296.98</v>
+        <v>381.52</v>
       </c>
       <c r="D18" t="n">
-        <v>358</v>
+        <v>420.26</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>358</v>
+        <v>420.26</v>
       </c>
       <c r="D19" t="n">
-        <v>401.6</v>
+        <v>468.06</v>
       </c>
       <c r="E19" t="n">
-        <v>4.28</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="20">
@@ -812,203 +812,203 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>267.84</v>
+        <v>468.06</v>
       </c>
       <c r="D20" t="n">
-        <v>312.9</v>
+        <v>517.8200000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>11.84</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>311.04</v>
+        <v>517.8200000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>354.74</v>
+        <v>596.58</v>
       </c>
       <c r="E21" t="n">
-        <v>8.256</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>354.74</v>
+        <v>274.62</v>
       </c>
       <c r="D22" t="n">
-        <v>389.9</v>
+        <v>328.22</v>
       </c>
       <c r="E22" t="n">
-        <v>5.88</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>389.9</v>
+        <v>379.4</v>
       </c>
       <c r="D23" t="n">
-        <v>427.9</v>
+        <v>411.9</v>
       </c>
       <c r="E23" t="n">
-        <v>3.72</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>401.6</v>
+        <v>329.58</v>
       </c>
       <c r="D24" t="n">
-        <v>480.28</v>
+        <v>369.48</v>
       </c>
       <c r="E24" t="n">
-        <v>1.992</v>
+        <v>4.472</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>480.28</v>
+        <v>596.58</v>
       </c>
       <c r="D25" t="n">
-        <v>582.7</v>
+        <v>665.86</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>427.9</v>
+        <v>328.22</v>
       </c>
       <c r="D26" t="n">
-        <v>460.9</v>
+        <v>356.22</v>
       </c>
       <c r="E26" t="n">
-        <v>1.56</v>
+        <v>5.308</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>460.9</v>
+        <v>369.48</v>
       </c>
       <c r="D27" t="n">
-        <v>559.08</v>
+        <v>411.58</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>2.392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>363.96</v>
+        <v>411.58</v>
       </c>
       <c r="D28" t="n">
-        <v>418.04</v>
+        <v>518.1</v>
       </c>
       <c r="E28" t="n">
-        <v>5.216</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>312.9</v>
+        <v>518.1</v>
       </c>
       <c r="D29" t="n">
-        <v>374.7</v>
+        <v>572.36</v>
       </c>
       <c r="E29" t="n">
-        <v>9.76</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>374.7</v>
+        <v>356.22</v>
       </c>
       <c r="D30" t="n">
-        <v>412.4</v>
+        <v>401.12</v>
       </c>
       <c r="E30" t="n">
-        <v>7.12</v>
+        <v>2.448</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>418.04</v>
+        <v>401.12</v>
       </c>
       <c r="D31" t="n">
-        <v>456.84</v>
+        <v>492.62</v>
       </c>
       <c r="E31" t="n">
-        <v>1.976</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,55 +1036,55 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>456.84</v>
+        <v>492.62</v>
       </c>
       <c r="D32" t="n">
-        <v>519.89</v>
+        <v>527.7</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>412.4</v>
+        <v>411.9</v>
       </c>
       <c r="D33" t="n">
-        <v>477.8</v>
+        <v>439.1</v>
       </c>
       <c r="E33" t="n">
-        <v>4.7</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>607.64</v>
+        <v>439.1</v>
       </c>
       <c r="D34" t="n">
-        <v>676.8200000000001</v>
+        <v>508.44</v>
       </c>
       <c r="E34" t="n">
-        <v>24.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>519.89</v>
+        <v>527.7</v>
       </c>
       <c r="D35" t="n">
-        <v>573.83</v>
+        <v>599.3200000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>27.756</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="36">
@@ -1112,109 +1112,109 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>559.08</v>
+        <v>413.72</v>
       </c>
       <c r="D36" t="n">
-        <v>618.38</v>
+        <v>483.1</v>
       </c>
       <c r="E36" t="n">
-        <v>26.76</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>582.7</v>
+        <v>477.54</v>
       </c>
       <c r="D37" t="n">
-        <v>620.8</v>
+        <v>520.2</v>
       </c>
       <c r="E37" t="n">
-        <v>27.88</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>620.8</v>
+        <v>520.2</v>
       </c>
       <c r="D38" t="n">
-        <v>690.3</v>
+        <v>616.36</v>
       </c>
       <c r="E38" t="n">
-        <v>25.02</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>452.96</v>
+        <v>616.36</v>
       </c>
       <c r="D39" t="n">
-        <v>506</v>
+        <v>673.88</v>
       </c>
       <c r="E39" t="n">
-        <v>2.48</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>477.8</v>
+        <v>483.1</v>
       </c>
       <c r="D40" t="n">
-        <v>541.66</v>
+        <v>529.0599999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>1.944</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>541.66</v>
+        <v>529.0599999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>624.47</v>
+        <v>625.0700000000001</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1222,40 +1222,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>573.83</v>
+        <v>625.0700000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>638.11</v>
+        <v>685.87</v>
       </c>
       <c r="E42" t="n">
-        <v>24.948</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>618.38</v>
+        <v>508.44</v>
       </c>
       <c r="D43" t="n">
-        <v>664.92</v>
+        <v>568.12</v>
       </c>
       <c r="E43" t="n">
-        <v>24.216</v>
+        <v>27.192</v>
       </c>
     </row>
   </sheetData>
